--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>96.22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.15</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007134</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票C</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>007134</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>嘉实长青竞争优势股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9686</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9686</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8743</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5649</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.77</v>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2239,13 +2326,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2749,7 +2750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,17 +2761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2780,14 +2801,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -2796,14 +2891,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>15.77</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="4">
@@ -2812,14 +2907,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="5">
@@ -2828,14 +2923,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -2844,13 +2939,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2986,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +3002,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>15.77</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="5">
@@ -2923,14 +3018,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="6">
@@ -2939,14 +3034,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -2955,13 +3050,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>15.77</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,35 +673,2353 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>泰达宏利转型机遇股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5887</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>0.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>9</v>
       </c>
     </row>
@@ -760,26 +3095,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>96.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +3123,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1375,7 +3804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2571,7 +5000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2741,7 +5170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2987,7 +5416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/600875-东方电气.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>11.64</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>15.77</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -616,7 +633,4109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7159</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6784</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4880</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富新能源股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016336</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时卓远成长一年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>51.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>016337</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时卓远成长一年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>51.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014354</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014355</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>69.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>016386</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012659</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>016387</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3020,100 +7139,6 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3189,26 +7214,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>96.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3217,6 +7242,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3804,7 +7923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5000,7 +9119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5170,7 +9289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5414,98 +9533,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0705</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>